--- a/PsychoPy Tutorial 4- Motor Sequence Learning Results.xlsx
+++ b/PsychoPy Tutorial 4- Motor Sequence Learning Results.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tutorial 4- Motor Sequence Lear'!$T$1:$W$401</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="41">
   <si>
     <t>pos</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Random Learning</t>
+  </si>
+  <si>
+    <t>The mean difference in the RT between sequential and</t>
+  </si>
+  <si>
+    <t>random conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential Learning- Mean- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Learning- Mean-  </t>
   </si>
 </sst>
 </file>
@@ -700,6 +712,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Sequence</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> and Random RT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1649,22 +1685,47 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132653056"/>
-        <c:axId val="132654592"/>
+        <c:axId val="187845632"/>
+        <c:axId val="187884288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132653056"/>
+        <c:axId val="187845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> of Trials</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132654592"/>
+        <c:crossAx val="187884288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1672,18 +1733,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132654592"/>
+        <c:axId val="187884288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Reaction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132653056"/>
+        <c:crossAx val="187845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1709,16 +1794,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2028,10 +2113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:X401"/>
+  <dimension ref="B1:AC401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,7 +2640,7 @@
         <v>0.46813130000373299</v>
       </c>
     </row>
-    <row r="17" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2587,7 +2672,7 @@
         <v>0.73608420003438302</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2619,7 +2704,7 @@
         <v>0.54947369999717899</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2651,7 +2736,7 @@
         <v>0.90477309998823296</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2683,7 +2768,7 @@
         <v>0.76674789999378801</v>
       </c>
     </row>
-    <row r="21" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2715,7 +2800,7 @@
         <v>1.2205779000068999</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2747,7 +2832,7 @@
         <v>1.4984897999675</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2779,7 +2864,7 @@
         <v>1.5874674000078799</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2811,7 +2896,7 @@
         <v>1.4845052000018699</v>
       </c>
     </row>
-    <row r="25" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2843,7 +2928,7 @@
         <v>0.41834690002724501</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2875,7 +2960,7 @@
         <v>3.9830529000028001</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2907,7 +2992,7 @@
         <v>0.93590470001799897</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2939,7 +3024,7 @@
         <v>1.6331530999741499</v>
       </c>
     </row>
-    <row r="29" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2971,7 +3056,7 @@
         <v>1.2832237000111399</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3002,8 +3087,14 @@
       <c r="W30" s="3">
         <v>2.4203045000322101</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC30">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3034,8 +3125,14 @@
       <c r="W31" s="3">
         <v>1.28743269998813</v>
       </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC31">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3067,7 +3164,7 @@
         <v>2.1151169000076999</v>
       </c>
     </row>
-    <row r="33" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3099,7 +3196,7 @@
         <v>2.8720302000292501</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3130,8 +3227,11 @@
       <c r="W34" s="3">
         <v>7.9058261999743902</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3162,8 +3262,15 @@
       <c r="W35" s="3">
         <v>6.0052282999968103</v>
       </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Z35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB35">
+        <f>AC31-AC30</f>
+        <v>0.21699999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3195,7 +3302,7 @@
         <v>0.58658989996183597</v>
       </c>
     </row>
-    <row r="37" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3227,7 +3334,7 @@
         <v>0.70298490003915504</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3259,7 +3366,7 @@
         <v>2.0205898000276599</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3291,7 +3398,7 @@
         <v>0.86958990001585301</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3323,7 +3430,7 @@
         <v>0.93668390001403101</v>
       </c>
     </row>
-    <row r="41" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3355,7 +3462,7 @@
         <v>0.54712740000104498</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3387,7 +3494,7 @@
         <v>0.86919739999575496</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3419,7 +3526,7 @@
         <v>0.45343380002304901</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3451,7 +3558,7 @@
         <v>0.42057949997251798</v>
       </c>
     </row>
-    <row r="45" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -3483,7 +3590,7 @@
         <v>0.50152950000483498</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -3515,7 +3622,7 @@
         <v>0.60138730000471696</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3547,7 +3654,7 @@
         <v>0.56692539999494296</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
